--- a/teaching/expdes/master-plan.xlsx
+++ b/teaching/expdes/master-plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>January</t>
   </si>
@@ -117,16 +117,129 @@
   </si>
   <si>
     <t>R tutorial - 2</t>
+  </si>
+  <si>
+    <t>Bayes problems</t>
+  </si>
+  <si>
+    <t>adams</t>
+  </si>
+  <si>
+    <t>new book</t>
+  </si>
+  <si>
+    <t>felsenstein</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>no lab</t>
+  </si>
+  <si>
+    <t>HW2 finishing</t>
+  </si>
+  <si>
+    <t>HW2</t>
+  </si>
+  <si>
+    <t>HW3 finishing</t>
+  </si>
+  <si>
+    <t>HW3</t>
+  </si>
+  <si>
+    <t>HW4 finishing</t>
+  </si>
+  <si>
+    <t>HW4</t>
+  </si>
+  <si>
+    <t>HW5 finishing</t>
+  </si>
+  <si>
+    <t>HW5</t>
+  </si>
+  <si>
+    <t>HW6 finishing</t>
+  </si>
+  <si>
+    <t>HW6</t>
+  </si>
+  <si>
+    <t>HW7 finishing</t>
+  </si>
+  <si>
+    <t>HW7</t>
+  </si>
+  <si>
+    <t>HW8 finishing</t>
+  </si>
+  <si>
+    <t>HW8</t>
+  </si>
+  <si>
+    <t>HW9</t>
+  </si>
+  <si>
+    <t>Readings</t>
+  </si>
+  <si>
+    <t>WS 1-2</t>
+  </si>
+  <si>
+    <t>WS 3-4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ME 2</t>
+    </r>
+  </si>
+  <si>
+    <t>WS 6-9</t>
+  </si>
+  <si>
+    <t>WS 10-13</t>
+  </si>
+  <si>
+    <t>WS 14-16</t>
+  </si>
+  <si>
+    <t>WS 17-18</t>
+  </si>
+  <si>
+    <t>ME 12</t>
+  </si>
+  <si>
+    <t>FELS 25</t>
+  </si>
+  <si>
+    <t>HW10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,8 +267,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -208,14 +339,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -224,16 +359,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,21 +658,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="4" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
@@ -540,13 +682,16 @@
         <v>23</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,10 +702,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>18</v>
@@ -569,12 +717,13 @@
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <f>B2+7</f>
@@ -584,12 +733,15 @@
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <f>B3+7</f>
@@ -601,313 +753,418 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <f>B4+7</f>
         <v>30</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <f>B7+7</f>
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <f>B8+7</f>
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <f>B9+7</f>
         <v>15</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <f>B10+7</f>
         <v>20</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <f>B11+7</f>
         <v>22</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <f>B12+7</f>
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5">
         <v>6</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5">
         <v>8</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5">
         <v>20</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5">
         <v>22</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5">
         <v>27</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5">
         <v>29</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="6">
         <v>3</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6">
         <v>5</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6">
         <v>10</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6">
         <v>12</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6">
         <v>17</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6">
         <v>19</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6">
         <v>24</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6">
         <v>26</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -920,6 +1177,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/teaching/expdes/master-plan.xlsx
+++ b/teaching/expdes/master-plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38600" yWindow="5000" windowWidth="26260" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="43340" yWindow="1020" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,6 +278,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="9">
@@ -350,7 +355,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -362,10 +367,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -661,7 +667,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,7 +767,7 @@
         <f>B4+7</f>
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1"/>
@@ -793,7 +799,7 @@
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
@@ -808,7 +814,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
-        <f>B7+7</f>
+        <f t="shared" ref="B9:B14" si="0">B7+7</f>
         <v>8</v>
       </c>
       <c r="C9" s="8"/>
@@ -824,7 +830,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
-        <f>B8+7</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -842,7 +848,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
-        <f>B9+7</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C11" s="8"/>
@@ -858,14 +864,14 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
-        <f>B10+7</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="2"/>
@@ -876,7 +882,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
-        <f>B11+7</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C13" s="8"/>
@@ -892,14 +898,14 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
-        <f>B12+7</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="2"/>
@@ -987,7 +993,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F20" s="5"/>
@@ -1083,7 +1089,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>60</v>
       </c>
       <c r="F26" s="6"/>

--- a/teaching/expdes/master-plan.xlsx
+++ b/teaching/expdes/master-plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="43340" yWindow="1020" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
+    <workbookView xWindow="34860" yWindow="460" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,55 +191,48 @@
     <t>WS 3-4</t>
   </si>
   <si>
+    <t>WS 6-9</t>
+  </si>
+  <si>
+    <t>WS 10-13</t>
+  </si>
+  <si>
+    <t>WS 14-16</t>
+  </si>
+  <si>
+    <t>WS 17-18</t>
+  </si>
+  <si>
+    <t>ME 12</t>
+  </si>
+  <si>
+    <t>FELS 25</t>
+  </si>
+  <si>
+    <t>HW10</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">WS 5 </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>ME 2</t>
     </r>
-  </si>
-  <si>
-    <t>WS 6-9</t>
-  </si>
-  <si>
-    <t>WS 10-13</t>
-  </si>
-  <si>
-    <t>WS 14-16</t>
-  </si>
-  <si>
-    <t>WS 17-18</t>
-  </si>
-  <si>
-    <t>ME 12</t>
-  </si>
-  <si>
-    <t>FELS 25</t>
-  </si>
-  <si>
-    <t>HW10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,20 +262,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF808080"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="9">
@@ -346,16 +334,16 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -364,14 +352,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -667,7 +659,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,12 +759,12 @@
         <f>B4+7</f>
         <v>30</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>54</v>
+      <c r="E6" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -785,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="8"/>
@@ -799,12 +791,12 @@
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>55</v>
+      <c r="E8" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
@@ -837,8 +829,8 @@
         <v>14</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>56</v>
+      <c r="E10" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
@@ -855,7 +847,7 @@
       <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
@@ -871,8 +863,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="11" t="s">
-        <v>57</v>
+      <c r="E12" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
@@ -889,11 +881,11 @@
       <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -905,11 +897,11 @@
         <v>16</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -925,10 +917,10 @@
         <v>31</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
@@ -940,8 +932,8 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -955,8 +947,8 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
@@ -968,8 +960,8 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -981,8 +973,8 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
@@ -993,11 +985,11 @@
         <v>17</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
@@ -1009,10 +1001,10 @@
         <v>32</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
@@ -1026,8 +1018,8 @@
       <c r="E22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1041,10 +1033,10 @@
         <v>31</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -1060,8 +1052,8 @@
       <c r="E24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1075,10 +1067,10 @@
         <v>31</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
@@ -1089,11 +1081,11 @@
         <v>20</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
+      <c r="E26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1107,10 +1099,10 @@
         <v>33</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="6"/>
+      <c r="F27" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
@@ -1124,9 +1116,9 @@
       <c r="E28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
-        <v>61</v>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">

--- a/teaching/expdes/master-plan.xlsx
+++ b/teaching/expdes/master-plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34860" yWindow="460" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
+    <workbookView xWindow="34360" yWindow="460" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>January</t>
   </si>
@@ -116,12 +116,6 @@
     <t>R tutorial - 1</t>
   </si>
   <si>
-    <t>R tutorial - 2</t>
-  </si>
-  <si>
-    <t>Bayes problems</t>
-  </si>
-  <si>
     <t>adams</t>
   </si>
   <si>
@@ -137,19 +131,10 @@
     <t>no lab</t>
   </si>
   <si>
-    <t>HW2 finishing</t>
-  </si>
-  <si>
     <t>HW2</t>
   </si>
   <si>
-    <t>HW3 finishing</t>
-  </si>
-  <si>
     <t>HW3</t>
-  </si>
-  <si>
-    <t>HW4 finishing</t>
   </si>
   <si>
     <t>HW4</t>
@@ -223,6 +208,27 @@
       </rPr>
       <t>ME 2</t>
     </r>
+  </si>
+  <si>
+    <t>lec #</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>newts</t>
+  </si>
+  <si>
+    <t>book-probs</t>
+  </si>
+  <si>
+    <t>HW2 finish - newts</t>
+  </si>
+  <si>
+    <t>HW3 finish - pandas</t>
+  </si>
+  <si>
+    <t>HW4 finish - book probs</t>
   </si>
 </sst>
 </file>
@@ -656,40 +662,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" customWidth="1"/>
-    <col min="4" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,29 +709,33 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>18</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <f>B2+7</f>
@@ -730,30 +744,36 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <f>B3+7</f>
         <v>25</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <f>B4+7</f>
@@ -762,14 +782,19 @@
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -777,16 +802,17 @@
         <v>1</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="8"/>
+      <c r="E7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>6</v>
@@ -794,66 +820,74 @@
       <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="13">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <f t="shared" ref="B9:B14" si="0">B7+7</f>
         <v>8</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="8"/>
+      <c r="E9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="13">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
+      <c r="E11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
@@ -862,32 +896,34 @@
       <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="8">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
@@ -896,16 +932,17 @@
       <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" s="8">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -913,16 +950,17 @@
         <v>1</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5">
         <v>6</v>
@@ -930,14 +968,17 @@
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <v>8</v>
+      </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="9"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5">
         <v>8</v>
@@ -947,10 +988,11 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5">
         <v>13</v>
@@ -958,12 +1000,15 @@
       <c r="C18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9">
+        <v>9</v>
+      </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5">
         <v>15</v>
@@ -973,10 +1018,11 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5">
         <v>20</v>
@@ -984,29 +1030,33 @@
       <c r="C20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="18"/>
+      <c r="D20" s="9">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5">
         <v>22</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5">
         <v>27</v>
@@ -1014,31 +1064,35 @@
       <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="9">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5">
         <v>29</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -1048,31 +1102,35 @@
       <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="10">
+        <v>12</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6">
         <v>5</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6">
         <v>10</v>
@@ -1080,31 +1138,35 @@
       <c r="C26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D26" s="10">
+        <v>13</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6">
         <v>12</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6">
         <v>17</v>
@@ -1112,29 +1174,33 @@
       <c r="C28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D28" s="10">
+        <v>14</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6">
         <v>19</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="10"/>
       <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6">
         <v>24</v>
@@ -1142,14 +1208,17 @@
       <c r="C30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="6"/>
+      <c r="D30" s="10">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6">
         <v>26</v>
@@ -1157,12 +1226,13 @@
       <c r="C31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1172,10 +1242,13 @@
       <c r="C32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4">
+        <v>16</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/teaching/expdes/master-plan.xlsx
+++ b/teaching/expdes/master-plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34360" yWindow="460" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
+    <workbookView xWindow="9280" yWindow="460" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>January</t>
   </si>
@@ -122,12 +122,6 @@
     <t>new book</t>
   </si>
   <si>
-    <t>felsenstein</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>no lab</t>
   </si>
   <si>
@@ -146,27 +140,6 @@
     <t>HW5</t>
   </si>
   <si>
-    <t>HW6 finishing</t>
-  </si>
-  <si>
-    <t>HW6</t>
-  </si>
-  <si>
-    <t>HW7 finishing</t>
-  </si>
-  <si>
-    <t>HW7</t>
-  </si>
-  <si>
-    <t>HW8 finishing</t>
-  </si>
-  <si>
-    <t>HW8</t>
-  </si>
-  <si>
-    <t>HW9</t>
-  </si>
-  <si>
     <t>Readings</t>
   </si>
   <si>
@@ -192,9 +165,6 @@
   </si>
   <si>
     <t>FELS 25</t>
-  </si>
-  <si>
-    <t>HW10</t>
   </si>
   <si>
     <r>
@@ -229,6 +199,12 @@
   </si>
   <si>
     <t>HW4 finish - book probs</t>
+  </si>
+  <si>
+    <t>plant-probs</t>
+  </si>
+  <si>
+    <t>HW6 finish - plant</t>
   </si>
 </sst>
 </file>
@@ -665,7 +641,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,13 +660,13 @@
         <v>22</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>24</v>
@@ -714,7 +690,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -749,7 +725,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
@@ -765,11 +741,11 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -787,11 +763,11 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -804,11 +780,11 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -825,11 +801,11 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -841,11 +817,11 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -863,11 +839,11 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -879,11 +855,11 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -893,7 +869,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="8">
@@ -901,11 +877,11 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -916,11 +892,13 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>29</v>
+      <c r="E13" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -937,7 +915,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -955,9 +933,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="G15" s="18"/>
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -974,9 +950,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
@@ -1035,7 +1009,7 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -1051,9 +1025,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1068,13 +1040,9 @@
         <v>11</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
@@ -1087,9 +1055,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="G23" s="18"/>
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1106,13 +1072,9 @@
         <v>12</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="F24" s="10"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="19" t="s">
-        <v>44</v>
-      </c>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
@@ -1125,9 +1087,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="19" t="s">
-        <v>45</v>
-      </c>
+      <c r="G25" s="19"/>
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1143,12 +1103,10 @@
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G26" s="19"/>
-      <c r="H26" s="19" t="s">
-        <v>45</v>
-      </c>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -1157,13 +1115,9 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="19" t="s">
-        <v>55</v>
-      </c>
+      <c r="G27" s="19"/>
       <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1178,13 +1132,9 @@
         <v>14</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="F28" s="10"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="19" t="s">
-        <v>55</v>
-      </c>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
@@ -1193,9 +1143,7 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1212,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>

--- a/teaching/expdes/master-plan.xlsx
+++ b/teaching/expdes/master-plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="460" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
+    <workbookView xWindow="44940" yWindow="460" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,7 +907,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="8">

--- a/teaching/expdes/master-plan.xlsx
+++ b/teaching/expdes/master-plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44940" yWindow="460" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
+    <workbookView xWindow="55180" yWindow="860" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>January</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>HW6 finish - plant</t>
+  </si>
+  <si>
+    <t>HW6</t>
+  </si>
+  <si>
+    <t>HW7 finish - book-probs</t>
+  </si>
+  <si>
+    <t>HW7</t>
   </si>
 </sst>
 </file>
@@ -641,7 +650,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -917,8 +926,10 @@
       <c r="F14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -929,12 +940,14 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
+      <c r="E15" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
@@ -949,8 +962,10 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>

--- a/teaching/expdes/master-plan.xlsx
+++ b/teaching/expdes/master-plan.xlsx
@@ -650,7 +650,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/teaching/expdes/master-plan.xlsx
+++ b/teaching/expdes/master-plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="55180" yWindow="860" windowWidth="24320" windowHeight="20320" tabRatio="500"/>
+    <workbookView xWindow="35440" yWindow="460" windowWidth="12820" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>January</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Review</t>
   </si>
   <si>
-    <t>Exam</t>
-  </si>
-  <si>
     <t>GWAS</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>mixed models</t>
   </si>
   <si>
-    <t>heterogeneity and hierarchical data</t>
-  </si>
-  <si>
     <t>non gaussian response variables</t>
   </si>
   <si>
@@ -107,15 +101,9 @@
     <t>due</t>
   </si>
   <si>
-    <t>HW1: research/plots</t>
-  </si>
-  <si>
     <t>HW1</t>
   </si>
   <si>
-    <t>R tutorial - 1</t>
-  </si>
-  <si>
     <t>adams</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
   </si>
   <si>
     <t>HW4</t>
-  </si>
-  <si>
-    <t>HW5 finishing</t>
   </si>
   <si>
     <t>HW5</t>
@@ -192,35 +177,56 @@
     <t>book-probs</t>
   </si>
   <si>
-    <t>HW2 finish - newts</t>
-  </si>
-  <si>
-    <t>HW3 finish - pandas</t>
-  </si>
-  <si>
-    <t>HW4 finish - book probs</t>
-  </si>
-  <si>
     <t>plant-probs</t>
   </si>
   <si>
-    <t>HW6 finish - plant</t>
-  </si>
-  <si>
     <t>HW6</t>
   </si>
   <si>
-    <t>HW7 finish - book-probs</t>
-  </si>
-  <si>
     <t>HW7</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>R tutorial</t>
+  </si>
+  <si>
+    <t>HW1: research</t>
+  </si>
+  <si>
+    <t>HW2: plots</t>
+  </si>
+  <si>
+    <t>HW8</t>
+  </si>
+  <si>
+    <t>HW3 finish - newts</t>
+  </si>
+  <si>
+    <t>HW4 finish - pandas</t>
+  </si>
+  <si>
+    <t>HW5 finish - book probs</t>
+  </si>
+  <si>
+    <t>HW6 finishing</t>
+  </si>
+  <si>
+    <t>HW7 finish - plant</t>
+  </si>
+  <si>
+    <t>HW8 finish - book-probs</t>
+  </si>
+  <si>
+    <t>Exam 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,8 +269,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,38 +297,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF828C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2C9F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF83A5E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -322,8 +306,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -333,38 +335,105 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,571 +716,707 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
         <f>B2+7</f>
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
+      <c r="C4" s="2"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35">
         <f>B3+7</f>
         <v>25</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9">
         <f>B4+7</f>
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="38">
         <v>3</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="13">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
+      <c r="E8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12">
         <f t="shared" ref="B9:B14" si="0">B7+7</f>
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="2"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="13">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>34</v>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="25">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="13"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8">
-        <v>6</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="C12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="18">
+        <v>5</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="19"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="27">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13">
+        <v>6</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="20">
+        <v>8</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12">
+        <v>8</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>13</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="27">
+        <v>9</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13">
+        <v>20</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="20">
+        <v>7</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12">
+        <v>22</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>27</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D22" s="27">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
+        <v>29</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13">
+        <v>3</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="20">
+        <v>12</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12">
+        <v>5</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="27">
+        <v>13</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
+        <v>12</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13">
+        <v>17</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="20">
+        <v>14</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12">
+        <v>19</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9">
+        <v>24</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="30">
+        <v>15</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5">
+        <v>26</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5">
+      <c r="D31" s="33"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="9">
-        <v>8</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9">
-        <v>9</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5">
-        <v>15</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5">
-        <v>20</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="9">
-        <v>10</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5">
-        <v>22</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5">
-        <v>27</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9">
-        <v>11</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5">
-        <v>29</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="6">
-        <v>3</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="10">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6">
-        <v>5</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6">
-        <v>10</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="10">
-        <v>13</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6">
-        <v>12</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6">
-        <v>17</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="10">
-        <v>14</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6">
-        <v>19</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6">
-        <v>24</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="10">
-        <v>15</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6">
-        <v>26</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="4">
-        <v>8</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="D32" s="7">
         <v>16</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/teaching/expdes/master-plan.xlsx
+++ b/teaching/expdes/master-plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35440" yWindow="460" windowWidth="12820" windowHeight="20320" tabRatio="500"/>
+    <workbookView xWindow="1000" yWindow="680" windowWidth="23280" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>January</t>
   </si>
@@ -47,9 +47,6 @@
     <t>May</t>
   </si>
   <si>
-    <t>Final Exam</t>
-  </si>
-  <si>
     <t>Review</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>species as data points</t>
   </si>
   <si>
-    <t>Expression data</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -102,15 +96,6 @@
   </si>
   <si>
     <t>HW1</t>
-  </si>
-  <si>
-    <t>adams</t>
-  </si>
-  <si>
-    <t>new book</t>
-  </si>
-  <si>
-    <t>no lab</t>
   </si>
   <si>
     <t>HW2</t>
@@ -180,53 +165,29 @@
     <t>plant-probs</t>
   </si>
   <si>
-    <t>HW6</t>
-  </si>
-  <si>
-    <t>HW7</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
     <t>R tutorial</t>
   </si>
   <si>
     <t>HW1: research</t>
   </si>
   <si>
-    <t>HW2: plots</t>
-  </si>
-  <si>
-    <t>HW8</t>
-  </si>
-  <si>
-    <t>HW3 finish - newts</t>
-  </si>
-  <si>
-    <t>HW4 finish - pandas</t>
-  </si>
-  <si>
-    <t>HW5 finish - book probs</t>
-  </si>
-  <si>
-    <t>HW6 finishing</t>
-  </si>
-  <si>
-    <t>HW7 finish - plant</t>
-  </si>
-  <si>
-    <t>HW8 finish - book-probs</t>
-  </si>
-  <si>
-    <t>Exam 1</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Exam 1 - In class</t>
+  </si>
+  <si>
+    <t>1-3pm Exam 2 - take home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,6 +234,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -373,9 +340,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -393,14 +357,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -420,6 +378,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -716,10 +689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,25 +711,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -761,76 +737,73 @@
         <v>0</v>
       </c>
       <c r="B2" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
-        <f>B2+7</f>
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32">
+        <v>24</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35">
-        <f>B3+7</f>
-        <v>25</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="12"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
-        <f>B4+7</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
@@ -839,12 +812,12 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="11"/>
       <c r="H6" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -852,99 +825,93 @@
         <v>1</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13">
-        <v>6</v>
-      </c>
-      <c r="C8" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="35">
         <v>3</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12">
-        <f t="shared" ref="B9:B14" si="0">B7+7</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="14"/>
       <c r="F9" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="F10" s="25"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>13</v>
@@ -953,98 +920,90 @@
         <v>5</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="F14" s="25"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
+        <v>28</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="B16" s="13">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="20">
-        <v>8</v>
-      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="17"/>
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12">
-        <v>8</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1052,237 +1011,227 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
-        <v>13</v>
-      </c>
-      <c r="C18" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="27">
-        <v>9</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
-        <v>15</v>
-      </c>
-      <c r="C19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13">
-        <v>20</v>
-      </c>
-      <c r="C20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="18">
         <v>7</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>38</v>
+      <c r="E20" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39" t="s">
-        <v>48</v>
-      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12">
-        <v>22</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
-        <v>27</v>
-      </c>
-      <c r="C22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="27">
-        <v>10</v>
+      <c r="D22" s="24">
+        <v>8</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>29</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="13">
-        <v>3</v>
-      </c>
-      <c r="C24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="20">
-        <v>12</v>
-      </c>
-      <c r="E24" s="19"/>
+      <c r="D24" s="18">
+        <v>9</v>
+      </c>
+      <c r="E24" s="17"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12">
-        <v>5</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="24">
         <v>10</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="27">
-        <v>13</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="E26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>12</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13">
-        <v>17</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="20">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="18">
+        <v>11</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12">
-        <v>19</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9">
-        <v>24</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="30">
-        <v>15</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="44">
+        <v>12</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5">
-        <v>26</v>
-      </c>
-      <c r="C31" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
         <v>7</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="7">
-        <v>16</v>
-      </c>
-      <c r="E32" s="2"/>
+      <c r="C32" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1298,127 +1247,129 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="21"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="21"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/teaching/expdes/master-plan.xlsx
+++ b/teaching/expdes/master-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hblackmon/Desktop/Dropbox/gitrepos/coleoguy.github.io/teaching/expdes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA47033B-B835-DC48-87ED-17768D99B06D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C3FE9C-5A12-5147-B771-62948FAC35C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="680" windowWidth="23280" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
